--- a/data/hour_ahead/test_out.xlsx
+++ b/data/hour_ahead/test_out.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12495" windowHeight="7110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17745" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -358,282 +358,282 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.12126097080422711</v>
+        <v>0.49064165605390253</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.19111588751567257</v>
+        <v>0.49616014598667424</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.14633709475192549</v>
+        <v>0.50167862958070908</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.17553286763388859</v>
+        <v>0.50719711526501421</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.12179831631739209</v>
+        <v>0.51271559674202016</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.20437041017374172</v>
+        <v>0.51823408455055853</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.25022389396381872</v>
+        <v>0.52375257025338895</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.12770911696220669</v>
+        <v>0.52927105383610284</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.12394769837005194</v>
+        <v>0.53478953742910862</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.10728998746193803</v>
+        <v>0.5403080189124182</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.2276553824108902</v>
+        <v>0.54582651092812717</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.1875335840945728</v>
+        <v>0.55134498608903837</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.34963281389933726</v>
+        <v>0.58831524052300133</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.43829482357155652</v>
+        <v>0.52935568068351746</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.26562779867454772</v>
+        <v>0.77095447308309739</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.169084721475909</v>
+        <v>0.99547104367700534</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>9.9767150277628516E-2</v>
+        <v>0.88658493155237628</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.10084184130395844</v>
+        <v>0.53244341908718573</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>7.3078989790435256E-2</v>
+        <v>0.20102883293144105</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>7.1108722908830371E-2</v>
+        <v>0.28728383405114927</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>5.194339960594662E-2</v>
+        <v>0.82373085127750756</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2.5613469460863333E-2</v>
+        <v>0.40325361272520321</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>4.9077556869066813E-2</v>
+        <v>0.46412439080800072</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>3.474834318466774E-2</v>
+        <v>0.36628468688439808</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>4.7286405158516925E-2</v>
+        <v>0.34952017123419427</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1.8807092960773777E-2</v>
+        <v>0.46467863006245103</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2.1135590184488625E-2</v>
+        <v>0.38405314585484529</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2.0777359842378648E-2</v>
+        <v>0.31474656401805695</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>9.4931040659143838E-3</v>
+        <v>0.17617633601634602</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>3.582303421099767E-4</v>
+        <v>0.14512268421477137</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2.3822317750313453E-2</v>
+        <v>0.13235033462676529</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>3.3136306645172843E-2</v>
+        <v>0.12587247958540884</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1.6120365394948952E-3</v>
+        <v>0.14849821055039833</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1.4329213684399068E-3</v>
+        <v>0.20937489441027798</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>5.3734551316496511E-4</v>
+        <v>0.19650518843981973</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1.0209564750134336E-2</v>
+        <v>0.33036078281978709</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>9.8513344080243589E-3</v>
+        <v>0.55709237435784686</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>4.4778792763747093E-3</v>
+        <v>0.48639702298287529</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>2.8300197026688161E-2</v>
+        <v>0.40557602074481885</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>3.9405337632097441E-3</v>
+        <v>0.39833259322388437</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>5.3734551316496511E-4</v>
+        <v>0.63285025597775602</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>5.3734551316496511E-4</v>
+        <v>0.20806099313208321</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>5.3734551316496511E-4</v>
+        <v>2.5089949241084986E-2</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>5.3734551316496511E-4</v>
+        <v>4.427617870346548E-2</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0</v>
+        <v>0.13176839855576675</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1.7911517105498835E-4</v>
+        <v>0.12683111670766006</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1.7911517105498835E-4</v>
+        <v>0.18897918264612729</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>3.582303421099767E-4</v>
+        <v>0.20129986858167206</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>2.6867275658248252E-3</v>
+        <v>0.21450170940098101</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1.7911517105498835E-4</v>
+        <v>0.18805917926814675</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1.7911517105498835E-4</v>
+        <v>0.10650387785040337</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1.7911517105498835E-4</v>
+        <v>0.12845219227510712</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1.7911517105498835E-4</v>
+        <v>5.8903051982484187E-3</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0</v>
+        <v>2.468846851146652E-2</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0</v>
+        <v>5.3622398048355738E-2</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0</v>
+        <v>1.9205436176526217E-2</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -648,117 +648,117 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>7.1646068421995341E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>5.0152247895396736E-3</v>
+        <v>1.846888386408359E-3</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1.5224789539674011E-2</v>
+        <v>0.11044860991845683</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>2.8837542539853125E-2</v>
+        <v>0.11268940065037718</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>2.4897008776643383E-2</v>
+        <v>5.9992088790108471E-2</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1.5941250223893963E-2</v>
+        <v>0.1022575150520639</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1.2717177144904173E-2</v>
+        <v>2.941474213186647E-2</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>2.6867275658248254E-2</v>
+        <v>3.7302228343326195E-3</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>8.239297868529465E-3</v>
+        <v>4.0458430009094994E-3</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1.6120365394948952E-3</v>
+        <v>9.4448929912561736E-4</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>3.582303421099767E-4</v>
+        <v>5.6110475940441651E-4</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0</v>
+        <v>5.3662259317097831E-2</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>5.3734551316496511E-4</v>
+        <v>3.480204141127681E-2</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1.0746910263299302E-3</v>
+        <v>9.931058356645435E-3</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>3.582303421099767E-4</v>
+        <v>3.1374370853578595E-2</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1.4329213684399068E-3</v>
+        <v>5.5339150427972876E-2</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>3.4031882500447789E-3</v>
+        <v>1.8006010973819223E-2</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>4.1196489342647325E-3</v>
+        <v>1.8214635456662227E-4</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>7.1646068421995341E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1.7911517105498835E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1.970266881604872E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1.7911517105498835E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>3.582303421099767E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
@@ -768,57 +768,57 @@
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>5.3734551316496511E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1.7911517105498836E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1.0746910263299302E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>3.582303421099767E-4</v>
+        <v>7.7184057497063885E-5</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>5.3734551316496511E-4</v>
+        <v>4.0832458678298912E-2</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>3.582303421099767E-4</v>
+        <v>2.2939351224690489E-2</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>0</v>
+        <v>2.9918442756289975E-3</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>3.582303421099767E-4</v>
+        <v>3.5910027623970724E-3</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>4.1196489342647325E-3</v>
+        <v>2.0606921628255555E-2</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1.7911517105498835E-4</v>
+        <v>3.8201999943163617E-2</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>2.1493820526598604E-3</v>
+        <v>2.1113516979527899E-2</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
@@ -828,367 +828,367 @@
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1.7911517105498835E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1.7911517105498835E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>3.582303421099767E-4</v>
+        <v>9.3906026174069481E-3</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>5.194339960594662E-3</v>
+        <v>2.7372360734183684E-2</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>8.9557585527494181E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1.0926025434354289E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>2.1135590184488625E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>3.582303421099767E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>7.8452444922084905E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>2.0419129500268671E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>7.8989790435249868E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>0.1123052122514777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>0.10334945369872828</v>
+        <v>7.0428851683204544E-4</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>9.9767150277628516E-2</v>
+        <v>4.6101932584890148E-2</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>6.2869425040300908E-2</v>
+        <v>0.13433032327891736</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>7.3616335303600219E-2</v>
+        <v>0.18343625696024005</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>0.11785778255418233</v>
+        <v>0.22533025175686203</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>7.8094214579974924E-2</v>
+        <v>0.26607772576224686</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>8.3646784882679556E-2</v>
+        <v>0.42002658494188844</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>2.6329930145083287E-2</v>
+        <v>0.68162323377245548</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>4.0300913487372379E-2</v>
+        <v>0.56511641430857895</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>3.1166039763567976E-2</v>
+        <v>3.4755447681068675E-2</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1.7195056421278884E-2</v>
+        <v>5.0253364760034426E-2</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>7.3258104961490239E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>0.11015583019881783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>3.2240730789897904E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1.3791868171234104E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>5.7316854737596273E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1.0746910263299301E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1.307540748701415E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1.307540748701415E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1.1821601289629231E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>6.4481461579795809E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>6.2511194698190942E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>2.3284972237148486E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>8.0601826974744765E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1.4508328855454057E-2</v>
+        <v>9.2719623151437964E-3</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>4.8540211355901842E-2</v>
+        <v>6.0411741746967139E-2</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>5.9108006448146157E-2</v>
+        <v>8.6964765604248609E-2</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>9.3856349632813904E-2</v>
+        <v>0.10913363459269587</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>6.9854916711445461E-2</v>
+        <v>0.12184473262610784</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>7.2899874619380259E-2</v>
+        <v>0.12328345665178091</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>5.8570660934981193E-2</v>
+        <v>0.21529149618998836</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>9.8692459251298589E-2</v>
+        <v>9.9339586481826822E-2</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>4.8719326526956833E-2</v>
+        <v>0.10520498932430122</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>4.0121798316317389E-2</v>
+        <v>9.0623714480605383E-2</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>3.8688876947877482E-2</v>
+        <v>9.5893036149449593E-2</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>2.8121081855633171E-2</v>
+        <v>0.10381582316068474</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>3.1166039763567976E-2</v>
+        <v>0.15209137741043363</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>2.6509045316138277E-2</v>
+        <v>0.1800849442872875</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>2.5613469460863333E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1.0388679921189324E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>9.4931040659143838E-3</v>
+        <v>5.5979739056858605E-3</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1.629948056600394E-2</v>
+        <v>3.26531678421009E-3</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1.9702668816048718E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>7.0929607737775388E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>9.5110155830198814E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>9.2244313093319E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>0.12842557764642665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>8.2572093856349629E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>9.3677234461758907E-2</v>
+        <v>2.6119851658316717E-2</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>0.14024717893605587</v>
+        <v>7.9528185847943217E-2</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>0.22425219416084544</v>
+        <v>0.15301350145042203</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>0.25559734909546838</v>
+        <v>6.6146799250956054E-2</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>0.54504746552032957</v>
+        <v>1.4725596386365589E-2</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>0.44133978147949132</v>
+        <v>3.3372532806633659E-2</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>0.46211714132186998</v>
+        <v>4.7775621881356407E-3</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>0.53412144008597529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>0.35017015941250224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>0.33297510299122335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>0.14848647680458535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>3.8330646605767509E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>1.7911517105498835E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
@@ -1198,722 +1198,722 @@
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>0</v>
+        <v>2.9789332043261203E-3</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>2.61508149740283E-2</v>
+        <v>1.0630463018297655E-2</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>3.3852767329392797E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>4.0480028658427369E-2</v>
+        <v>7.7371484799492549E-3</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>2.4359663263478416E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>2.6867275658248252E-3</v>
+        <v>1.1659802243037191E-3</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>1.0746910263299302E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>5.3734551316496511E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>5.3734551316496511E-4</v>
+        <v>3.0697494249962731E-3</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>3.5823034210997673E-3</v>
+        <v>7.9091942596841904E-3</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>1.0388679921189324E-2</v>
+        <v>6.995483010298964E-2</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>0.10478237506716818</v>
+        <v>0.11510099180557627</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>0.16156188429159951</v>
+        <v>0.13034018331586927</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>0.18932473580512268</v>
+        <v>0.19021628971032958</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>0.37847035643919041</v>
+        <v>0.16381852420803319</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>0.36324556689951637</v>
+        <v>9.2225263444277741E-2</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>0.39924771628156908</v>
+        <v>4.7329308355336545E-2</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>0.27924055167472683</v>
+        <v>5.8705411072136719E-2</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>0.28049435787211174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>0.25488088841124845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>0.31739208310943939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>0.16729356976535911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>7.2362529106215295E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>9.4035464803868887E-2</v>
+        <v>2.3171835697075047E-3</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>5.4451012000716462E-2</v>
+        <v>0.42472139967921441</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>3.5643919039942684E-2</v>
+        <v>0.19362778262201846</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>1.0209564750134336E-2</v>
+        <v>0.15201851789500007</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>0</v>
+        <v>8.547803901600276E-2</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>0.1275300017911517</v>
+        <v>0.88993388069985446</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>0.10137918681712341</v>
+        <v>0.99547104367700534</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>5.6958624395486296E-2</v>
+        <v>0.99547104367700534</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>0</v>
+        <v>0.99547104367700534</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>1.3970983342289092E-2</v>
+        <v>0.99547104367700534</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>4.9256672040121796E-2</v>
+        <v>0.99547104367700534</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>0.18986208131828766</v>
+        <v>0.99547104367700534</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>0.15188966505463014</v>
+        <v>0.99547104367700534</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>0.23016299480566005</v>
+        <v>0.99547104367700534</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>0.45513164965072539</v>
+        <v>0.99547104367700534</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>0.47447608812466419</v>
+        <v>0.98672036243614369</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>0.69084721475909006</v>
+        <v>0.99547104367700534</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>0.90148665591975641</v>
+        <v>0.9770389183629431</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>0.77968833960236428</v>
+        <v>0.99547104367700534</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>0.69890739745656461</v>
+        <v>0.99547104367700534</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>0.80010746910263297</v>
+        <v>0.97389529953532772</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>0.88411248432742251</v>
+        <v>0.90796585212648173</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>0.94</v>
+        <v>0.86666449371201859</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>0.94</v>
+        <v>0.68662026024475487</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>0.82751209027404626</v>
+        <v>0.82791614861911356</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>0.84363245566899514</v>
+        <v>0.5268422959511273</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>0.86691742790614368</v>
+        <v>0.83768794735283914</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>0.91097975998567082</v>
+        <v>0.69092976011638718</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>0.93354827153859932</v>
+        <v>0.38661369009138352</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>0.91187533584094571</v>
+        <v>0.2735976369001446</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>0.70517642844348916</v>
+        <v>9.9208699356082175E-2</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>0.75765717356260076</v>
+        <v>0.54343983138723051</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>0.75926921010209569</v>
+        <v>0.3263944024228696</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>0.75729894322049074</v>
+        <v>0.1564126671132692</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>0.86960415547196845</v>
+        <v>0.14020153902553384</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>0.74404442056242159</v>
+        <v>3.7426776446173517E-2</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>0.73061078273329749</v>
+        <v>7.2774080925438744E-2</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>0.76249328318108545</v>
+        <v>3.8549203092704085E-2</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>0.19308615439727744</v>
+        <v>1.3167990269301062E-2</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>0.70840050152247891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>0.8325273150635859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>0.6937130574959699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>0.87927637470893782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>0.88876947877485224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>0.90524807451191114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>0.8828586781300376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>0.8685294644456385</v>
+        <v>9.0393507461466321E-3</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>0.27207594483252734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>0.25935876768762312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>0.5939459072183414</v>
+        <v>1.0018486764619522E-2</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>0.53519613111230524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>0.44348916353215118</v>
+        <v>4.9385794740164343E-2</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>0.70822138635142395</v>
+        <v>2.2931347270156784E-2</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>0.46426652337452984</v>
+        <v>1.2039043988585905E-2</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>0.39835214042629413</v>
+        <v>6.2747103682475575E-2</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>0.19165323302883755</v>
+        <v>1.2496272243006319E-2</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>0.18018986208131829</v>
+        <v>4.823206831707276E-3</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>7.8094214579974924E-2</v>
+        <v>2.8272295562925698E-2</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>4.5674368619022028E-2</v>
+        <v>4.6426410413122461E-2</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>0.10800644814615798</v>
+        <v>7.4056252384074178E-3</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>0.17051764284434892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>9.9229804764463553E-2</v>
+        <v>6.9408557526072475E-3</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>4.5853483790077018E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>1.755328676338886E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>4.5137023105857065E-2</v>
+        <v>5.411319920911443E-3</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>5.6063048540211359E-2</v>
+        <v>2.774342057126138E-2</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>2.9195772881963102E-2</v>
+        <v>8.0791440198551348E-2</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>0.39387426114991941</v>
+        <v>6.0257263364010584E-2</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>0.14956116783091528</v>
+        <v>6.9173263389503969E-2</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>0.107648217804048</v>
+        <v>1.0154145300409693E-2</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>2.7762851513523194E-2</v>
+        <v>2.8753630511392979E-2</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>7.1646068421995341E-4</v>
+        <v>3.7381227395157493E-2</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>2.4359663263478416E-2</v>
+        <v>2.3679652680725213E-3</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>4.3704101737417157E-2</v>
+        <v>7.8689926178097443E-3</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>2.1314705355543615E-2</v>
+        <v>9.4953632660498312E-3</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>1.8986208131828768E-2</v>
+        <v>1.1187704965502481E-2</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>2.5434354289808347E-2</v>
+        <v>3.8174843565934563E-2</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>3.7076840408382591E-2</v>
+        <v>1.1697486872005026E-3</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>9.4931040659143838E-3</v>
+        <v>9.9063078475289893E-3</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>0.14723267060720044</v>
+        <v>2.5648164344681455E-2</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>0.13147053555436145</v>
+        <v>1.9288926204329454E-2</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>9.1348737238044056E-2</v>
+        <v>8.5045174982377472E-2</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>0.123052122514777</v>
+        <v>0.20600295825015527</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>0.14723267060720044</v>
+        <v>0.28208855942853078</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>8.5617051764284441E-2</v>
+        <v>0.30899029622877983</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>0.18986208131828766</v>
+        <v>0.21657028477832077</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>6.5018807092960776E-2</v>
+        <v>0.27600401056380475</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>8.2392978685294646E-2</v>
+        <v>0.24486498263243869</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>8.9378470356439185E-2</v>
+        <v>0.39365404341961829</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>0.13935160308078096</v>
+        <v>0.65690243207787491</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>7.3616335303600219E-2</v>
+        <v>0.50923714122351182</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>7.2183413935160312E-2</v>
+        <v>0.49952821683368315</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>0.18466774135769301</v>
+        <v>0.2487530509796772</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>0.21941608454236075</v>
+        <v>1.6559844067017302E-2</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>2.6329930145083287E-2</v>
+        <v>1.9205372269421064E-2</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>9.2244313093319E-2</v>
+        <v>5.4541670855274484E-2</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>5.9108006448146157E-2</v>
+        <v>7.0751458203951317E-2</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>6.4481461579795809E-3</v>
+        <v>7.3716167399230662E-2</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>5.3734551316496511E-4</v>
+        <v>4.0715151500042186E-2</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>1.8090632276553824E-2</v>
+        <v>3.677324362482446E-2</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>0.10030449579079348</v>
+        <v>3.4235183277077856E-2</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>7.1646068421995341E-4</v>
+        <v>6.3819622219580263E-2</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>1.7911517105498835E-4</v>
+        <v>7.7744719951271662E-2</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>3.5823034210997673E-3</v>
+        <v>0.10006359017181241</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>0</v>
+        <v>6.7914983224355366E-2</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>7.7019523553644997E-3</v>
+        <v>0.10164019943684251</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>7.7019523553644997E-3</v>
+        <v>0.22900567709473146</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>1.1821601289629231E-2</v>
+        <v>0.39323252894695127</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>3.9226222461042452E-2</v>
+        <v>0.66496300590771718</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>1.5762135052838976E-2</v>
+        <v>0.76309224339339443</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>4.4778792763747093E-3</v>
+        <v>0.94009780390010966</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>5.194339960594662E-3</v>
+        <v>0.79108755638896888</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>1.7911517105498835E-4</v>
+        <v>0.93497424331042456</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>1.0746910263299302E-3</v>
+        <v>0.83418623414558413</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>0</v>
+        <v>0.68893250910793991</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>1.7911517105498835E-4</v>
+        <v>9.4621969911685935E-2</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>1.7911517105498835E-4</v>
+        <v>1.5253683990932373E-2</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>1.7911517105498835E-4</v>
+        <v>1.8816438080737453E-2</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>1.7911517105498835E-4</v>
+        <v>2.2372565263092288E-2</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>0</v>
+        <v>1.2517290695537885E-3</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>0</v>
+        <v>6.2510366714682044E-4</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
@@ -1923,17 +1923,17 @@
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>0</v>
+        <v>7.9210409439737616E-5</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>2.5076123947698368E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>5.0152247895396736E-3</v>
+        <v>1.7090318640813177E-4</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
@@ -1948,202 +1948,202 @@
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>1.2358946802794197E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>8.239297868529465E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>3.5823034210997673E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>2.1493820526598604E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>8.9557585527494181E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>1.7911517105498836E-3</v>
+        <v>6.8866730055479625E-3</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>1.4866559197564034E-2</v>
+        <v>3.7904438785197461E-2</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>2.0777359842378648E-2</v>
+        <v>2.5610368523062615E-2</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>2.8121081855633171E-2</v>
+        <v>2.9621630289692344E-3</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>3.4390112842557767E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>2.6329930145083287E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>1.1821601289629231E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>2.1672935697653592E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>1.2538061973849185E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>2.1852050868708579E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>1.3433637829124127E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>5.3734551316496505E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>1.9881783987103708E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>4.1196489342647323E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>2.7941966684578184E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>4.4778792763747091E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>6.8959340856170517E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>4.4062332079527138E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>0.12179831631739209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>0.13988894859394591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>5.7495969908651259E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>5.8391545763926203E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>7.7019523553644997E-2</v>
+        <v>3.5853712213603072E-3</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>6.4660576750850796E-2</v>
+        <v>5.8546427070542285E-2</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>2.1314705355543615E-2</v>
+        <v>0.14286488124987776</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>2.9374888053018092E-2</v>
+        <v>0.12785821414310361</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>7.1646068421995345E-3</v>
+        <v>7.0955206919962016E-2</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>1.4508328855454057E-2</v>
+        <v>3.0836047368548312E-2</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>4.0838259000537343E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>2.8658427368798138E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>2.0777359842378648E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>1.0746910263299302E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>3.5823034210997673E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>7.7019523553644997E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>9.8513344080243589E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
@@ -2153,7 +2153,7 @@
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>3.582303421099767E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
@@ -2163,7 +2163,7 @@
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>0</v>
+        <v>3.1659573457021015E-2</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
@@ -2208,27 +2208,27 @@
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>0</v>
+        <v>5.2969239323114115E-3</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>0</v>
+        <v>1.115263777529653E-2</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>0</v>
+        <v>9.3864379145058869E-3</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>9.6722192369693705E-3</v>
+        <v>4.2522578169880236E-4</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>1.3254522658069139E-2</v>
+        <v>1.9005636277403875E-3</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
@@ -2238,32 +2238,32 @@
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>4.7107289987461935E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>4.4241447250582128E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>7.1646068421995341E-4</v>
+        <v>1.3700446791655834E-2</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>2.6867275658248252E-3</v>
+        <v>0.12957814851687013</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>3.582303421099767E-4</v>
+        <v>5.7646647146159889E-3</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>1.7911517105498835E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
@@ -2273,1087 +2273,1087 @@
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>4.4778792763747093E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>5.9108006448146157E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>3.582303421099767E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>3.582303421099767E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>5.3734551316496511E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>5.3734551316496511E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>5.3734551316496511E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>3.582303421099767E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>1.7911517105498835E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>1.7911517105498835E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>3.582303421099767E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>5.5525703027046389E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>8.4184130395844534E-3</v>
+        <v>5.3281624995126578E-2</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>3.9405337632097441E-3</v>
+        <v>9.2960705790803566E-2</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>3.582303421099767E-4</v>
+        <v>0.11502108098218877</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>3.582303421099767E-4</v>
+        <v>0.1048532197915952</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>1.7911517105498835E-4</v>
+        <v>0.18685823977837543</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>1.7911517105498835E-4</v>
+        <v>0.21783510742621939</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>1.7911517105498835E-4</v>
+        <v>0.31532952005139381</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>1.7911517105498835E-4</v>
+        <v>0.24562762705808441</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>0</v>
+        <v>0.28331988926058099</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>3.582303421099767E-4</v>
+        <v>0.25711264818407603</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>5.0152247895396736E-3</v>
+        <v>0.15397085734934773</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>9.6722192369693705E-3</v>
+        <v>8.9632622574055493E-2</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>1.7911517105498835E-4</v>
+        <v>0.10818644462029371</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>0.8038688876947877</v>
+        <v>7.0423421920400145E-2</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>0.74350707504925673</v>
+        <v>0.25789397221014976</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>0.52695683324377574</v>
+        <v>2.6018350196198699E-2</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>0.69980297331183949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>0.6915636754433101</v>
+        <v>2.8841735076795181E-3</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>0.51567257746731143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>0.53734551316496504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>0.43220490775568693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>0.86673831273508861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>0.82267598065556158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>0.94322049077556869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>0.83682607916890561</v>
+        <v>1.747953707331561E-2</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>0.94</v>
+        <v>3.0799521058048375E-2</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>0.90721834139351598</v>
+        <v>1.2680389219653648E-2</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>0.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>0.94</v>
+        <v>6.2879296923511407E-2</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>0.89521762493283186</v>
+        <v>0.13204546576774179</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>0.90954683861723085</v>
+        <v>0.18158283885339849</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>0.94</v>
+        <v>4.0816674462110243E-2</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>0.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>0.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>0.91330825720938569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>0.84667741357692994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>0.90990506895934087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>0.86046928174816406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>0.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>0.77664338169442948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>0.89091886082751204</v>
+        <v>3.1386032673997614E-3</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>0.84381157084005021</v>
+        <v>2.4864515692125944E-3</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>0.76285151352319547</v>
+        <v>3.2891245970475665E-2</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>0.59251298584990153</v>
+        <v>3.9890117026353859E-2</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>0.67383127350886618</v>
+        <v>2.4062922157810838E-2</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>0.59931936234999106</v>
+        <v>3.1467215934727975E-2</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>0.56080960057316853</v>
+        <v>4.4586380337937812E-2</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>0.67436861902203116</v>
+        <v>7.9738894813931593E-2</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>0.43417517463729177</v>
+        <v>0.12318152665306654</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>0.48844707146695326</v>
+        <v>9.9988834549704864E-2</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>0.32545226580691383</v>
+        <v>3.604366878058754E-2</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>0.50564212788823215</v>
+        <v>7.2190288708232258E-3</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>0.22729715206878023</v>
+        <v>2.3413591840732019E-3</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>0.22353573347662548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>0.25326885187175352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>0.19541465162099231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>0.11409636396202759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>6.9496686369335481E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>3.0091348737238045E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>9.4931040659143838E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>5.3734551316496511E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>2.8658427368798136E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>8.5975282106394418E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>6.4481461579795809E-3</v>
+        <v>3.3076463311206623E-2</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>6.2690309869245925E-3</v>
+        <v>1.0370170515744301E-2</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>7.1646068421995341E-4</v>
+        <v>2.9590514518663426E-2</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>0</v>
+        <v>6.0644613656594792E-2</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>0</v>
+        <v>1.4824879491621293E-2</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>0</v>
+        <v>6.456638601931056E-3</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>0</v>
+        <v>3.342430491017221E-2</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>0</v>
+        <v>4.4953167300372222E-2</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>3.4031882500447789E-3</v>
+        <v>7.1104802398671479E-2</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>1.0746910263299302E-3</v>
+        <v>0.11195096477211013</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>0</v>
+        <v>0.16102710114364313</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>1.7911517105498835E-4</v>
+        <v>0.16433670796245589</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>5.3734551316496511E-4</v>
+        <v>0.10143968231361535</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>3.2240730789897904E-3</v>
+        <v>9.397242207065E-2</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>1.4687444026509046E-2</v>
+        <v>0.1171239946582186</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>4.4778792763747093E-3</v>
+        <v>7.1751502931426292E-2</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>8.9557585527494181E-4</v>
+        <v>4.238248107211396E-3</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>8.9557585527494181E-4</v>
+        <v>2.7233808598789284E-2</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>3.582303421099767E-4</v>
+        <v>1.2659414574801998E-2</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>3.582303421099767E-4</v>
+        <v>2.7283044081688062E-2</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>1.7911517105498835E-4</v>
+        <v>0.10514531685759321</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>1.7911517105498835E-4</v>
+        <v>2.6781894474113145E-2</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>0</v>
+        <v>0.11047612450995914</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>0</v>
+        <v>8.1245680971024262E-2</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>0</v>
+        <v>8.929893226516851E-2</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>5.3734551316496511E-4</v>
+        <v>0.15470819575211758</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>7.1646068421995341E-4</v>
+        <v>0.15300781923139567</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>5.3734551316496511E-4</v>
+        <v>0.1214335266090442</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>3.582303421099767E-4</v>
+        <v>0.11947779043365157</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>1.7911517105498836E-3</v>
+        <v>7.8541666871447882E-2</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>1.6120365394948953E-2</v>
+        <v>6.7327789677037453E-2</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>5.4630127171771452E-2</v>
+        <v>7.3514763929378876E-2</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>7.1825183593050332E-2</v>
+        <v>9.3173316631006267E-2</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>9.2244313093319E-2</v>
+        <v>0.13426400178865022</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>7.0213147053555441E-2</v>
+        <v>0.14832287064576288</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>5.1585169263836647E-2</v>
+        <v>0.17030071388743678</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>5.0868708579616694E-2</v>
+        <v>0.19046789350341758</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>3.5643919039942684E-2</v>
+        <v>0.12514628410444817</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>4.5853483790077018E-2</v>
+        <v>0.16055495322967209</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>3.8509761776822499E-2</v>
+        <v>7.2298601735255597E-2</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>6.0899158158696044E-2</v>
+        <v>9.8468415746076982E-2</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>0.11875335840945728</v>
+        <v>7.8729448651187112E-2</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>9.8692459251298589E-2</v>
+        <v>7.5674042452137338E-2</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>7.0571377395665408E-2</v>
+        <v>4.8798535343351726E-2</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>5.2301629948056601E-2</v>
+        <v>3.8319681134678561E-2</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>4.1017374171592333E-2</v>
+        <v>0.11940758497581803</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>3.0449579079348022E-2</v>
+        <v>8.9974048900029455E-2</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>0.1015583019881784</v>
+        <v>6.3165277362720512E-2</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>0.14132186996238583</v>
+        <v>7.5652855573842687E-2</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>0.13935160308078096</v>
+        <v>8.5050212591290572E-2</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>0.27637470893784705</v>
+        <v>6.4252989013113687E-2</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>0.35285688697832707</v>
+        <v>7.5228934525757199E-2</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>0.45656457101916531</v>
+        <v>8.5713623828074931E-2</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>0.49041733834855811</v>
+        <v>0.14269261302463362</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>0.56063048540211358</v>
+        <v>0.15105145665316244</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>2.9016657710908115E-2</v>
+        <v>0.30854230846473824</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>7.0929607737775388E-2</v>
+        <v>0.43573659953375715</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>0.11391724879097259</v>
+        <v>0.31603005507427812</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>0.15690488984416981</v>
+        <v>0.2109386002158411</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>0.199892530897367</v>
+        <v>0.27435073555046519</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>0.24180548092423429</v>
+        <v>0.23494812133517415</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>0.28479312197743151</v>
+        <v>0.16602070165722968</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>0.3277807630306287</v>
+        <v>9.7558488736548987E-2</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>0.32151173204370409</v>
+        <v>6.4213343551651814E-2</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>0.23553644993730968</v>
+        <v>8.074983856846589E-2</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>0.34085617051764283</v>
+        <v>6.8138465196775772E-2</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>0.24699982088482894</v>
+        <v>8.937951132458935E-2</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>0.17732401934443848</v>
+        <v>9.2528466362036543E-2</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>0.11302167293569765</v>
+        <v>1.9533171343578674E-2</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>3.9584452803152426E-2</v>
+        <v>4.8304423230361E-2</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>6.4481461579795809E-3</v>
+        <v>2.7680278288888499E-2</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>0</v>
+        <v>3.0402527391448894E-4</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>1.7911517105498836E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>1.7195056421278884E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>3.6897725237327601E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>4.8181981013791869E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>6.2690309869245925E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>0.12233566183055705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>0.12233566183055705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>0.13397814794913129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>8.0960057316854739E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>5.4809242342826435E-2</v>
+        <v>1.3050907745179792E-2</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>9.6543077198638722E-2</v>
+        <v>1.2598641057987667E-2</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>5.033136306645173E-2</v>
+        <v>5.2915513184319245E-2</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>8.4184130395844534E-2</v>
+        <v>5.8190020229053549E-2</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>7.1108722908830371E-2</v>
+        <v>9.5727463671119364E-3</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>6.5197922264015759E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>7.558660218520509E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>4.5316138276912055E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548">
-        <v>1.4687444026509046E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>1.8807092960773777E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>2.3284972237148488E-3</v>
+        <v>3.1430810053022666E-2</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>1.7911517105498837E-2</v>
+        <v>0.79608723687409877</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>3.582303421099767E-4</v>
+        <v>0.66349511887214319</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>1.7911517105498835E-4</v>
+        <v>0.67078597585212807</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>5.3734551316496511E-4</v>
+        <v>0.15056153025917823</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>8.9557585527494181E-4</v>
+        <v>3.3753668019002508E-2</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>9.3139888948593954E-3</v>
+        <v>0.18140611374386226</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>2.5434354289808347E-2</v>
+        <v>0.16337804341130344</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>1.7015941250223893E-2</v>
+        <v>0.85029281642658339</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>3.4927458355722731E-2</v>
+        <v>0.88474536196624698</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>3.8867992118932472E-2</v>
+        <v>0.87546272729975172</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>8.5975282106394418E-3</v>
+        <v>0.94122233952845269</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>1.4687444026509046E-2</v>
+        <v>0.80351714729121904</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>1.0746910263299301E-2</v>
+        <v>0.99547104367700534</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>2.61508149740283E-2</v>
+        <v>0.99547104367700534</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>2.400143292136844E-2</v>
+        <v>0.99547104367700534</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>3.9405337632097436E-2</v>
+        <v>0.99547104367700534</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>4.9077556869066813E-2</v>
+        <v>0.99547104367700534</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>6.6809958803510663E-2</v>
+        <v>0.99547104367700534</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>4.3524986566362174E-2</v>
+        <v>0.99547104367700534</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>8.5975282106394418E-3</v>
+        <v>0.99547104367700534</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>1.6120365394948952E-3</v>
+        <v>0.99547104367700534</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572">
-        <v>5.9108006448146157E-3</v>
+        <v>0.85483480703073322</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573">
-        <v>3.582303421099767E-4</v>
+        <v>0.89538556931521629</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574">
-        <v>2.1493820526598602E-2</v>
+        <v>0.90937151484550427</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575">
-        <v>2.3105857066093499E-2</v>
+        <v>0.85343838751360024</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576">
-        <v>1.7911517105498835E-4</v>
+        <v>0.86467458503572892</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577">
-        <v>7.1646068421995341E-4</v>
+        <v>0.84915764449774667</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578">
-        <v>1.0746910263299302E-3</v>
+        <v>0.34390198768088276</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579">
-        <v>7.7019523553644997E-3</v>
+        <v>0.34017405250015487</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580">
-        <v>1.7911517105498836E-3</v>
+        <v>0.19612732903907287</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>1.0746910263299301E-2</v>
+        <v>0.14192549893842066</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>7.7019523553644997E-3</v>
+        <v>0.40575871669380009</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>0</v>
+        <v>0.36310439943912043</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>1.4329213684399068E-3</v>
+        <v>0.64021004748855725</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>3.582303421099767E-4</v>
+        <v>0.52832246682872963</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>5.3734551316496511E-4</v>
+        <v>0.64807678073959385</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>3.582303421099767E-4</v>
+        <v>0.65813427491020193</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>2.3105857066093499E-2</v>
+        <v>0.80786115325991315</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>1.1821601289629231E-2</v>
+        <v>0.68324835249985427</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>6.9854916711445461E-3</v>
+        <v>0.452589291670972</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>0</v>
+        <v>0.12344687898613313</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>7.1646068421995341E-4</v>
+        <v>0.13069238194601193</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>2.5076123947698368E-3</v>
+        <v>0.15557795748311465</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>1.7911517105498835E-4</v>
+        <v>9.7234413625482824E-2</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>1.7911517105498835E-4</v>
+        <v>0.10632784645534953</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596">
-        <v>5.3734551316496511E-4</v>
+        <v>1.6567936563175345E-2</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597">
-        <v>5.3734551316496511E-4</v>
+        <v>9.7836274281058663E-2</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598">
-        <v>7.1646068421995341E-4</v>
+        <v>0.18650184884239207</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599">
-        <v>8.9557585527494181E-4</v>
+        <v>9.3841905219142513E-2</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600">
-        <v>1.2538061973849184E-3</v>
+        <v>7.5856259112238492E-2</v>
       </c>
     </row>
   </sheetData>
